--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\7rmart\7rmart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1959698-5B19-49F7-8AE6-4AA1F1E9D26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0E04E4-A5AE-46B7-AF72-675F552C667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2800" windowWidth="14400" windowHeight="7360" firstSheet="4" activeTab="6" xr2:uid="{5AE957E0-9D78-4D01-A000-4AB00849498E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{5AE957E0-9D78-4D01-A000-4AB00849498E}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -97,13 +97,13 @@
     <t>abcvv@gmail.com</t>
   </si>
   <si>
-    <t>goldFanFstt</t>
-  </si>
-  <si>
     <t>jose thomasss cpppp</t>
   </si>
   <si>
     <t>busjf</t>
+  </si>
+  <si>
+    <t>goldFanFmm</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>12345678</v>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CCAB20-C7B8-47F3-AAD2-C1274AFCD5AD}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -690,7 +690,7 @@
     </row>
     <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3C6935-EBBA-46FA-A0E5-E9375ACFF390}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -716,7 +716,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
